--- a/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3EAD2B-AC80-4623-BE84-F4C6731571C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95400DA0-A518-43EA-9C30-1CDF81BE0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{423BC7D7-8563-4E8F-9452-5912C582264B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CE7394A-BE99-4B12-890E-BBCFD0FA6315}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="831">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -95,2431 +95,2443 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>10,93%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>82,29%</t>
   </si>
   <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFFD66C-947A-4939-838B-748DD2C303B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D06005-5016-49A4-BEBA-4625DEE3E8AD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3600,10 +3612,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,7 +3671,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3677,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3692,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3707,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,10 +3734,10 @@
         <v>138110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>101</v>
@@ -3773,28 +3785,28 @@
         <v>374851</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>294</v>
       </c>
       <c r="I18" s="7">
-        <v>306207</v>
+        <v>306208</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>647</v>
@@ -3803,13 +3815,13 @@
         <v>681059</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,19 +3836,19 @@
         <v>236101</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>262</v>
       </c>
       <c r="I19" s="7">
-        <v>279485</v>
+        <v>279486</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>119</v>
@@ -3938,7 +3950,7 @@
         <v>880</v>
       </c>
       <c r="I21" s="7">
-        <v>935757</v>
+        <v>935758</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4138,7 +4150,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -4147,13 +4159,13 @@
         <v>180201</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>324</v>
@@ -4162,13 +4174,13 @@
         <v>340835</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>160592</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -4198,13 +4210,13 @@
         <v>251202</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -4213,13 +4225,13 @@
         <v>411795</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4287,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4293,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4308,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4323,7 +4335,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4350,13 @@
         <v>139327</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
@@ -4353,13 +4365,13 @@
         <v>90985</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>233</v>
@@ -4368,13 +4380,13 @@
         <v>230312</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4401,13 @@
         <v>336520</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>325</v>
@@ -4404,13 +4416,13 @@
         <v>335618</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>682</v>
@@ -4419,13 +4431,13 @@
         <v>672138</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4452,13 @@
         <v>245564</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>261</v>
@@ -4455,13 +4467,13 @@
         <v>272561</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>513</v>
@@ -4470,13 +4482,13 @@
         <v>518125</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4503,13 @@
         <v>158314</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>258</v>
@@ -4506,13 +4518,13 @@
         <v>270397</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>431</v>
@@ -4521,13 +4533,13 @@
         <v>428711</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4616,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4631,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4658,13 @@
         <v>429118</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>261</v>
@@ -4661,13 +4673,13 @@
         <v>265545</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>677</v>
@@ -4676,13 +4688,13 @@
         <v>694664</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4709,13 @@
         <v>1276328</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>1065</v>
@@ -4712,13 +4724,13 @@
         <v>1079730</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>2318</v>
@@ -4727,13 +4739,13 @@
         <v>2356058</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4760,13 @@
         <v>796820</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
         <v>872</v>
@@ -4763,13 +4775,13 @@
         <v>903384</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>1642</v>
@@ -4778,13 +4790,13 @@
         <v>1700204</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4811,13 @@
         <v>614425</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>931</v>
@@ -4814,13 +4826,13 @@
         <v>958302</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>1547</v>
@@ -4829,13 +4841,13 @@
         <v>1572728</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4903,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +4924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65905612-6C40-40F4-8A73-1915F804A72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0712514-631C-48B0-93C1-55CA6C2A22D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4929,7 +4941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5042,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5057,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5072,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5099,13 @@
         <v>3994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5102,13 +5114,13 @@
         <v>3087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5117,13 +5129,13 @@
         <v>7081</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5150,13 @@
         <v>13239</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5153,13 +5165,13 @@
         <v>6312</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5168,13 +5180,13 @@
         <v>19551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5201,13 @@
         <v>14408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5204,13 +5216,13 @@
         <v>13415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5219,13 +5231,13 @@
         <v>27823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5252,13 @@
         <v>82346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5255,13 +5267,13 @@
         <v>86566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -5270,13 +5282,13 @@
         <v>168912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5407,13 @@
         <v>14525</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5410,13 +5422,13 @@
         <v>8125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5425,13 +5437,13 @@
         <v>22650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5458,13 @@
         <v>39357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5461,13 +5473,13 @@
         <v>23877</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -5476,13 +5488,13 @@
         <v>63234</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5509,13 @@
         <v>70432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5512,13 +5524,13 @@
         <v>61215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -5527,13 +5539,13 @@
         <v>131647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5560,13 @@
         <v>461488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
@@ -5563,13 +5575,13 @@
         <v>483720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>884</v>
@@ -5578,13 +5590,13 @@
         <v>945208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5658,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5673,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5688,7 +5700,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5715,13 @@
         <v>34476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5718,13 +5730,13 @@
         <v>24256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5733,13 +5745,13 @@
         <v>58732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5766,13 @@
         <v>71764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -5769,13 +5781,13 @@
         <v>55589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>119</v>
@@ -5784,13 +5796,13 @@
         <v>127352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5817,13 @@
         <v>117892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5820,13 +5832,13 @@
         <v>91885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5835,13 +5847,13 @@
         <v>209777</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5868,13 @@
         <v>782832</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>769</v>
@@ -5871,13 +5883,13 @@
         <v>849699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>1481</v>
@@ -5886,13 +5898,13 @@
         <v>1632531</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5981,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5996,7 +6008,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6023,13 @@
         <v>13548</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6026,13 +6038,13 @@
         <v>8665</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -6041,13 +6053,13 @@
         <v>22213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6074,13 @@
         <v>27570</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -6077,13 +6089,13 @@
         <v>33515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6092,13 +6104,13 @@
         <v>61085</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6125,13 @@
         <v>78391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -6128,13 +6140,13 @@
         <v>70256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>137</v>
@@ -6143,13 +6155,13 @@
         <v>148647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6176,13 @@
         <v>622108</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>595</v>
@@ -6179,13 +6191,13 @@
         <v>657337</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -6194,13 +6206,13 @@
         <v>1279446</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,7 +6268,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6274,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6289,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6304,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6331,13 @@
         <v>25439</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6334,13 +6346,13 @@
         <v>24158</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -6349,10 +6361,10 @@
         <v>49598</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>402</v>
@@ -6385,13 +6397,13 @@
         <v>57399</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
@@ -6400,13 +6412,13 @@
         <v>113742</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>273</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6433,13 @@
         <v>146406</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H31" s="7">
         <v>116</v>
@@ -6436,13 +6448,13 @@
         <v>121838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M31" s="7">
         <v>260</v>
@@ -6451,13 +6463,13 @@
         <v>268244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6484,13 @@
         <v>653388</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H32" s="7">
         <v>716</v>
@@ -6487,13 +6499,13 @@
         <v>754151</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M32" s="7">
         <v>1338</v>
@@ -6502,13 +6514,13 @@
         <v>1407538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6597,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6612,7 +6624,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6639,13 @@
         <v>91983</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -6642,13 +6654,13 @@
         <v>68291</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M35" s="7">
         <v>157</v>
@@ -6657,13 +6669,13 @@
         <v>160274</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6690,13 @@
         <v>208272</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -6693,13 +6705,13 @@
         <v>176692</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M36" s="7">
         <v>366</v>
@@ -6708,13 +6720,13 @@
         <v>384964</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6741,13 @@
         <v>427529</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H37" s="7">
         <v>334</v>
@@ -6744,13 +6756,13 @@
         <v>358609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M37" s="7">
         <v>749</v>
@@ -6759,13 +6771,13 @@
         <v>786138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>448</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6792,13 @@
         <v>2602162</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H38" s="7">
         <v>2611</v>
@@ -6795,13 +6807,13 @@
         <v>2831472</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M38" s="7">
         <v>5027</v>
@@ -6810,13 +6822,13 @@
         <v>5433634</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,7 +6884,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6893,7 +6905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CC59CE-3E0C-48A9-8035-D8FBA450B2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60479C4-E5A8-4963-AB59-9A8E74A3CAFD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6910,7 +6922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7023,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7038,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7053,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7080,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7083,13 +7095,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7098,13 +7110,13 @@
         <v>2951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7131,13 @@
         <v>10439</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7134,13 +7146,13 @@
         <v>3149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7149,13 +7161,13 @@
         <v>13588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7182,13 @@
         <v>23427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>475</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -7185,13 +7197,13 @@
         <v>15130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -7200,13 +7212,13 @@
         <v>38557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7233,13 @@
         <v>80494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="H8" s="7">
         <v>91</v>
@@ -7236,13 +7248,13 @@
         <v>91199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -7251,13 +7263,13 @@
         <v>171692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7376,13 +7388,13 @@
         <v>15541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>493</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7397,7 +7409,7 @@
         <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -7406,13 +7418,13 @@
         <v>23080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>497</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>498</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7439,13 @@
         <v>33111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -7442,13 +7454,13 @@
         <v>19380</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>501</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -7457,10 +7469,10 @@
         <v>52491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>504</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>505</v>
@@ -7481,10 +7493,10 @@
         <v>506</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -7493,13 +7505,13 @@
         <v>80585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -7529,7 +7541,7 @@
         <v>387258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>514</v>
@@ -7547,10 +7559,10 @@
         <v>516</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M14" s="7">
         <v>810</v>
@@ -7559,13 +7571,13 @@
         <v>821803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,7 +7633,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7639,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7654,7 +7666,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7669,7 +7681,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7696,13 @@
         <v>28761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -7699,13 +7711,13 @@
         <v>27950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -7714,13 +7726,13 @@
         <v>56710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7747,13 @@
         <v>68445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>532</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -7750,13 +7762,13 @@
         <v>50787</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M18" s="7">
         <v>112</v>
@@ -7765,13 +7777,13 @@
         <v>119232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7798,13 @@
         <v>190980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>166</v>
@@ -7801,13 +7813,13 @@
         <v>177615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -7816,13 +7828,13 @@
         <v>368594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7849,13 @@
         <v>724063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>716</v>
@@ -7852,13 +7864,13 @@
         <v>766654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M20" s="7">
         <v>1394</v>
@@ -7867,13 +7879,13 @@
         <v>1490717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,7 +7959,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7962,7 +7974,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7977,7 +7989,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,10 +8007,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -8007,13 +8019,13 @@
         <v>57061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>560</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -8022,13 +8034,13 @@
         <v>118147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,13 +8055,13 @@
         <v>111257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>566</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>116</v>
@@ -8058,13 +8070,13 @@
         <v>118506</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>44</v>
+        <v>562</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
         <v>215</v>
@@ -8073,13 +8085,13 @@
         <v>229764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>565</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8106,13 @@
         <v>145736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>138</v>
@@ -8109,13 +8121,13 @@
         <v>144296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -8124,13 +8136,13 @@
         <v>290033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>210</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8157,13 @@
         <v>429294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>408</v>
@@ -8160,13 +8172,13 @@
         <v>444040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>804</v>
@@ -8175,13 +8187,13 @@
         <v>873334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,7 +8249,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8255,7 +8267,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8270,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8285,7 +8297,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8312,13 @@
         <v>19154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -8315,13 +8327,13 @@
         <v>28084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>497</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -8330,13 +8342,13 @@
         <v>47238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,13 +8363,13 @@
         <v>61102</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -8366,13 +8378,13 @@
         <v>60108</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>118</v>
@@ -8381,13 +8393,13 @@
         <v>121210</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>602</v>
+        <v>335</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,13 +8414,13 @@
         <v>138827</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -8417,13 +8429,13 @@
         <v>142518</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M31" s="7">
         <v>271</v>
@@ -8432,13 +8444,13 @@
         <v>281345</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8453,13 +8465,13 @@
         <v>691950</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H32" s="7">
         <v>712</v>
@@ -8468,13 +8480,13 @@
         <v>779916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M32" s="7">
         <v>1401</v>
@@ -8483,13 +8495,13 @@
         <v>1471866</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>424</v>
+        <v>615</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>355</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8563,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8578,7 +8590,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8593,7 +8605,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8620,13 @@
         <v>125649</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>621</v>
+        <v>499</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H35" s="7">
         <v>118</v>
@@ -8623,13 +8635,13 @@
         <v>122477</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>623</v>
+        <v>402</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8638,13 +8650,13 @@
         <v>248126</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>504</v>
+        <v>621</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>336</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,10 +8674,10 @@
         <v>144</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>66</v>
+        <v>624</v>
       </c>
       <c r="H36" s="7">
         <v>243</v>
@@ -8674,13 +8686,13 @@
         <v>251929</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="M36" s="7">
         <v>509</v>
@@ -8689,13 +8701,13 @@
         <v>536284</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,13 +8722,13 @@
         <v>599119</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H37" s="7">
         <v>533</v>
@@ -8725,13 +8737,13 @@
         <v>560144</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M37" s="7">
         <v>1095</v>
@@ -8740,13 +8752,13 @@
         <v>1159264</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,13 +8773,13 @@
         <v>2313059</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>2356</v>
@@ -8776,13 +8788,13 @@
         <v>2516353</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="M38" s="7">
         <v>4578</v>
@@ -8791,13 +8803,13 @@
         <v>4829412</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8853,7 +8865,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8874,7 +8886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60571204-5FCC-4015-A53B-A947AE04D3DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EC3E1-7B94-4FE9-B673-21BB97A7ED96}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8891,7 +8903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9004,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9019,7 +9031,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9034,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9049,13 +9061,13 @@
         <v>1224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9064,13 +9076,13 @@
         <v>1162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>656</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -9079,13 +9091,13 @@
         <v>2386</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,10 +9115,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -9115,13 +9127,13 @@
         <v>3193</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -9130,13 +9142,13 @@
         <v>12748</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,13 +9163,13 @@
         <v>13840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -9166,13 +9178,13 @@
         <v>15539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -9181,13 +9193,13 @@
         <v>29379</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9202,13 +9214,13 @@
         <v>77363</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -9217,10 +9229,10 @@
         <v>109483</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>679</v>
@@ -9232,7 +9244,7 @@
         <v>186846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>680</v>
@@ -9357,13 +9369,13 @@
         <v>4674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>686</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -9372,13 +9384,13 @@
         <v>707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>687</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -9387,13 +9399,13 @@
         <v>5381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>689</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9408,13 +9420,13 @@
         <v>28386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>593</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -9423,13 +9435,13 @@
         <v>21144</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>533</v>
+        <v>690</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -9438,13 +9450,13 @@
         <v>49530</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>691</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,13 +9471,13 @@
         <v>44205</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -9474,13 +9486,13 @@
         <v>37935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>700</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -9489,13 +9501,13 @@
         <v>82140</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9510,13 +9522,13 @@
         <v>469814</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="H14" s="7">
         <v>890</v>
@@ -9525,13 +9537,13 @@
         <v>530583</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -9540,13 +9552,13 @@
         <v>1000398</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,7 +9614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9620,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9629,13 +9641,13 @@
         <v>605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9644,13 +9656,13 @@
         <v>605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9665,13 +9677,13 @@
         <v>2363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -9680,13 +9692,13 @@
         <v>14928</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9695,13 +9707,13 @@
         <v>17290</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>718</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>719</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9716,13 +9728,13 @@
         <v>52793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -9731,13 +9743,13 @@
         <v>40971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>257</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>438</v>
+        <v>142</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -9746,13 +9758,13 @@
         <v>93764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>723</v>
+        <v>618</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>623</v>
+        <v>721</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,13 +9779,13 @@
         <v>107146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>727</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -9782,13 +9794,13 @@
         <v>99277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M19" s="7">
         <v>257</v>
@@ -9797,13 +9809,13 @@
         <v>206423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9818,13 +9830,13 @@
         <v>868154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H20" s="7">
         <v>1279</v>
@@ -9833,13 +9845,13 @@
         <v>896070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M20" s="7">
         <v>2091</v>
@@ -9848,13 +9860,13 @@
         <v>1764223</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9928,7 +9940,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9958,7 +9970,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9973,13 +9985,13 @@
         <v>5078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>742</v>
+        <v>649</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9988,13 +10000,13 @@
         <v>13075</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>624</v>
+        <v>742</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -10003,13 +10015,13 @@
         <v>18153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>743</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>745</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10024,13 +10036,13 @@
         <v>54194</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>748</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -10039,10 +10051,10 @@
         <v>30879</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>747</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>748</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>749</v>
@@ -10057,10 +10069,10 @@
         <v>750</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10075,13 +10087,13 @@
         <v>127195</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="H25" s="7">
         <v>148</v>
@@ -10090,13 +10102,13 @@
         <v>110314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>756</v>
+        <v>694</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -10105,13 +10117,13 @@
         <v>237509</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>758</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10126,13 +10138,13 @@
         <v>540797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>424</v>
+        <v>759</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>760</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>761</v>
       </c>
       <c r="H26" s="7">
         <v>838</v>
@@ -10141,13 +10153,13 @@
         <v>718808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M26" s="7">
         <v>1352</v>
@@ -10156,13 +10168,13 @@
         <v>1259605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,7 +10230,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10236,7 +10248,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10251,7 +10263,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10266,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10281,10 +10293,10 @@
         <v>25088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>770</v>
+        <v>649</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>771</v>
@@ -10299,10 +10311,10 @@
         <v>772</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>592</v>
+        <v>773</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -10311,13 +10323,13 @@
         <v>38397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>525</v>
+        <v>774</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10332,13 +10344,13 @@
         <v>75776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>777</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>775</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7">
         <v>91</v>
@@ -10347,13 +10359,13 @@
         <v>68592</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="M30" s="7">
         <v>157</v>
@@ -10362,13 +10374,13 @@
         <v>144368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>781</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10386,7 +10398,7 @@
         <v>782</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>783</v>
@@ -10419,7 +10431,7 @@
         <v>788</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>608</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10431,16 +10443,16 @@
         <v>811</v>
       </c>
       <c r="D32" s="7">
-        <v>755363</v>
+        <v>755362</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H32" s="7">
         <v>1287</v>
@@ -10449,13 +10461,13 @@
         <v>949727</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M32" s="7">
         <v>2098</v>
@@ -10464,13 +10476,13 @@
         <v>1705089</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10482,7 +10494,7 @@
         <v>1005</v>
       </c>
       <c r="D33" s="7">
-        <v>965244</v>
+        <v>965243</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>56</v>
@@ -10544,7 +10556,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -10553,10 +10565,10 @@
         <v>27609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>621</v>
@@ -10568,13 +10580,13 @@
         <v>27609</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10592,10 +10604,10 @@
         <v>802</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>803</v>
+        <v>650</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>430</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>52</v>
@@ -10604,13 +10616,13 @@
         <v>43180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>663</v>
+        <v>803</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>463</v>
+        <v>804</v>
       </c>
       <c r="M35" s="7">
         <v>94</v>
@@ -10622,10 +10634,10 @@
         <v>802</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>656</v>
+        <v>805</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10640,13 +10652,13 @@
         <v>220704</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>371</v>
+        <v>808</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>805</v>
+        <v>597</v>
       </c>
       <c r="H36" s="7">
         <v>222</v>
@@ -10655,13 +10667,13 @@
         <v>164779</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="M36" s="7">
         <v>412</v>
@@ -10670,13 +10682,13 @@
         <v>385483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>65</v>
+        <v>812</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>809</v>
+        <v>323</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10691,13 +10703,13 @@
         <v>401402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>67</v>
+        <v>815</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>812</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
         <v>568</v>
@@ -10706,13 +10718,13 @@
         <v>377563</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="M37" s="7">
         <v>957</v>
@@ -10721,13 +10733,13 @@
         <v>778966</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>341</v>
+        <v>820</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10742,13 +10754,13 @@
         <v>2711489</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="H38" s="7">
         <v>4496</v>
@@ -10757,13 +10769,13 @@
         <v>3204671</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="M38" s="7">
         <v>7241</v>
@@ -10772,13 +10784,13 @@
         <v>5916161</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10834,7 +10846,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95400DA0-A518-43EA-9C30-1CDF81BE0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2C0B09-B360-457C-9E8F-97E05A1E771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CE7394A-BE99-4B12-890E-BBCFD0FA6315}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4DBF35-3154-4165-932F-186B15FF4165}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="818">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -95,2400 +95,2367 @@
     <t>9,37%</t>
   </si>
   <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2016 (Tasa respuesta: 97,64%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2012 (Tasa respuesta: 96,8%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
     <t>9,89%</t>
   </si>
   <si>
@@ -2498,9 +2465,6 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
     <t>9,94%</t>
   </si>
   <si>
@@ -2529,9 +2493,6 @@
   </si>
   <si>
     <t>80,92%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D06005-5016-49A4-BEBA-4625DEE3E8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1924AC0F-C54E-4A1B-A0F6-06319778D54E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3612,10 +3573,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3632,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3689,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3704,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3719,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3695,13 @@
         <v>138110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -3749,13 +3710,13 @@
         <v>81414</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -3764,13 +3725,13 @@
         <v>219524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3746,13 @@
         <v>374851</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>294</v>
@@ -3800,13 +3761,13 @@
         <v>306208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>647</v>
@@ -3815,13 +3776,13 @@
         <v>681059</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3797,13 @@
         <v>236101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>262</v>
@@ -3851,13 +3812,13 @@
         <v>279486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>481</v>
@@ -3866,13 +3827,13 @@
         <v>515587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3848,13 @@
         <v>174572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -3902,13 +3863,13 @@
         <v>268651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -3917,13 +3878,13 @@
         <v>443222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3940,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3997,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4012,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4027,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4003,13 @@
         <v>65468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -4057,13 +4018,13 @@
         <v>46943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -4072,13 +4033,13 @@
         <v>112411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4054,13 @@
         <v>265483</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -4108,13 +4069,13 @@
         <v>182785</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>434</v>
@@ -4123,13 +4084,13 @@
         <v>448268</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4105,13 @@
         <v>160633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -4159,13 +4120,13 @@
         <v>180201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>324</v>
@@ -4174,13 +4135,13 @@
         <v>340835</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4156,13 @@
         <v>160592</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -4210,13 +4171,13 @@
         <v>251202</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -4225,13 +4186,13 @@
         <v>411795</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4248,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4305,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4320,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4335,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4311,13 @@
         <v>139327</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
@@ -4365,13 +4326,13 @@
         <v>90985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>233</v>
@@ -4380,13 +4341,13 @@
         <v>230312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4362,13 @@
         <v>336520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>325</v>
@@ -4416,13 +4377,13 @@
         <v>335618</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>682</v>
@@ -4431,13 +4392,13 @@
         <v>672138</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4413,13 @@
         <v>245564</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>261</v>
@@ -4467,13 +4428,13 @@
         <v>272561</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>513</v>
@@ -4482,13 +4443,13 @@
         <v>518125</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4464,13 @@
         <v>158314</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>258</v>
@@ -4518,13 +4479,13 @@
         <v>270397</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>431</v>
@@ -4533,13 +4494,13 @@
         <v>428711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4628,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4643,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,16 +4616,16 @@
         <v>416</v>
       </c>
       <c r="D35" s="7">
-        <v>429118</v>
+        <v>429119</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>261</v>
@@ -4673,13 +4634,13 @@
         <v>265545</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>677</v>
@@ -4688,13 +4649,13 @@
         <v>694664</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,16 +4667,16 @@
         <v>1253</v>
       </c>
       <c r="D36" s="7">
-        <v>1276328</v>
+        <v>1276329</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>1065</v>
@@ -4724,13 +4685,13 @@
         <v>1079730</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="M36" s="7">
         <v>2318</v>
@@ -4739,13 +4700,13 @@
         <v>2356058</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4721,13 @@
         <v>796820</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>872</v>
@@ -4775,13 +4736,13 @@
         <v>903384</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="M37" s="7">
         <v>1642</v>
@@ -4790,13 +4751,13 @@
         <v>1700204</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,16 +4769,16 @@
         <v>616</v>
       </c>
       <c r="D38" s="7">
-        <v>614425</v>
+        <v>614426</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="H38" s="7">
         <v>931</v>
@@ -4859,7 +4820,7 @@
         <v>3055</v>
       </c>
       <c r="D39" s="7">
-        <v>3116692</v>
+        <v>3116693</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>56</v>
@@ -4924,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0712514-631C-48B0-93C1-55CA6C2A22D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0588EAF-55C6-42E8-8B71-65CF49FB0664}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5171,7 +5132,7 @@
         <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5180,13 +5141,13 @@
         <v>19551</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5162,13 @@
         <v>14408</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5216,13 +5177,13 @@
         <v>13415</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5231,13 +5192,13 @@
         <v>27823</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5213,13 @@
         <v>82346</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5267,13 +5228,13 @@
         <v>86566</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -5282,13 +5243,13 @@
         <v>168912</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5368,13 @@
         <v>14525</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5422,13 +5383,13 @@
         <v>8125</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5437,13 +5398,13 @@
         <v>22650</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5419,13 @@
         <v>39357</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5473,13 +5434,13 @@
         <v>23877</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -5488,13 +5449,13 @@
         <v>63234</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5470,13 @@
         <v>70432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5524,13 +5485,13 @@
         <v>61215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -5539,13 +5500,13 @@
         <v>131647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5521,13 @@
         <v>461488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
@@ -5575,13 +5536,13 @@
         <v>483720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>884</v>
@@ -5590,13 +5551,13 @@
         <v>945208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5685,7 +5646,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5700,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5676,13 @@
         <v>34476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5730,13 +5691,13 @@
         <v>24256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5745,13 +5706,13 @@
         <v>58732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5727,13 @@
         <v>71764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -5781,13 +5742,13 @@
         <v>55589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>119</v>
@@ -5796,13 +5757,13 @@
         <v>127352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5778,13 @@
         <v>117892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5832,13 +5793,13 @@
         <v>91885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5847,13 +5808,13 @@
         <v>209777</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5829,13 @@
         <v>782832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>769</v>
@@ -5883,13 +5844,13 @@
         <v>849699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>1481</v>
@@ -5898,13 +5859,13 @@
         <v>1632531</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5921,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5978,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5993,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6008,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +5984,13 @@
         <v>13548</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6038,13 +5999,13 @@
         <v>8665</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -6053,13 +6014,13 @@
         <v>22213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6035,13 @@
         <v>27570</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -6089,13 +6050,13 @@
         <v>33515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6104,13 +6065,13 @@
         <v>61085</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6086,13 @@
         <v>78391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -6140,13 +6101,13 @@
         <v>70256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>137</v>
@@ -6155,13 +6116,13 @@
         <v>148647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6137,13 @@
         <v>622108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H26" s="7">
         <v>595</v>
@@ -6191,13 +6152,13 @@
         <v>657337</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -6206,13 +6167,13 @@
         <v>1279446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,7 +6229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6286,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6301,7 +6262,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6316,7 +6277,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6292,13 @@
         <v>25439</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6346,13 +6307,13 @@
         <v>24158</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -6361,13 +6322,13 @@
         <v>49598</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6343,13 @@
         <v>56343</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -6397,13 +6358,13 @@
         <v>57399</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>259</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M30" s="7">
         <v>112</v>
@@ -6412,13 +6373,13 @@
         <v>113742</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6394,13 @@
         <v>146406</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H31" s="7">
         <v>116</v>
@@ -6448,13 +6409,13 @@
         <v>121838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M31" s="7">
         <v>260</v>
@@ -6463,13 +6424,13 @@
         <v>268244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6445,13 @@
         <v>653388</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>716</v>
@@ -6499,13 +6460,13 @@
         <v>754151</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>1338</v>
@@ -6514,13 +6475,13 @@
         <v>1407538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6609,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6624,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6600,13 @@
         <v>91983</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -6654,13 +6615,13 @@
         <v>68291</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="M35" s="7">
         <v>157</v>
@@ -6669,13 +6630,13 @@
         <v>160274</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6651,13 @@
         <v>208272</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -6705,13 +6666,13 @@
         <v>176692</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M36" s="7">
         <v>366</v>
@@ -6720,13 +6681,13 @@
         <v>384964</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6702,13 @@
         <v>427529</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H37" s="7">
         <v>334</v>
@@ -6756,13 +6717,13 @@
         <v>358609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M37" s="7">
         <v>749</v>
@@ -6771,13 +6732,13 @@
         <v>786138</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6753,13 @@
         <v>2602162</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H38" s="7">
         <v>2611</v>
@@ -6807,13 +6768,13 @@
         <v>2831472</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M38" s="7">
         <v>5027</v>
@@ -6822,13 +6783,13 @@
         <v>5433634</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6831,7 @@
         <v>6299</v>
       </c>
       <c r="N39" s="7">
-        <v>6765009</v>
+        <v>6765010</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -6905,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60479C4-E5A8-4963-AB59-9A8E74A3CAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C4067E-54D6-450B-917C-AFCBEA75D78B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6922,7 +6883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7035,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7050,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7065,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7041,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7095,13 +7056,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7110,13 +7071,13 @@
         <v>2951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7092,13 @@
         <v>10439</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7146,13 +7107,13 @@
         <v>3149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7161,13 +7122,13 @@
         <v>13588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>406</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7143,13 @@
         <v>23427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -7197,13 +7158,13 @@
         <v>15130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -7212,13 +7173,13 @@
         <v>38557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7194,13 @@
         <v>80494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>91</v>
@@ -7248,13 +7209,13 @@
         <v>91199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -7263,13 +7224,13 @@
         <v>171692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,7 +7304,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7388,13 +7349,13 @@
         <v>15541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7403,13 +7364,13 @@
         <v>7539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -7418,13 +7379,13 @@
         <v>23080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7400,13 @@
         <v>33111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -7454,13 +7415,13 @@
         <v>19380</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -7469,13 +7430,13 @@
         <v>52491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7451,13 @@
         <v>100150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -7505,13 +7466,13 @@
         <v>80585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -7520,13 +7481,13 @@
         <v>180735</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>512</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7502,13 @@
         <v>387258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H14" s="7">
         <v>429</v>
@@ -7556,13 +7517,13 @@
         <v>434544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M14" s="7">
         <v>810</v>
@@ -7571,13 +7532,13 @@
         <v>821803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,7 +7594,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7651,7 +7612,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7666,7 +7627,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7681,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7657,13 @@
         <v>28761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -7711,13 +7672,13 @@
         <v>27950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -7726,13 +7687,13 @@
         <v>56710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7708,13 @@
         <v>68445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>524</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -7762,13 +7723,13 @@
         <v>50787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M18" s="7">
         <v>112</v>
@@ -7777,13 +7738,13 @@
         <v>119232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>528</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7759,13 @@
         <v>190980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>166</v>
@@ -7813,13 +7774,13 @@
         <v>177615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -7828,13 +7789,13 @@
         <v>368594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7810,13 @@
         <v>724063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>716</v>
@@ -7864,13 +7825,13 @@
         <v>766654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>1394</v>
@@ -7879,13 +7840,13 @@
         <v>1490717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,7 +7902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7959,7 +7920,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7974,7 +7935,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7989,7 +7950,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,10 +7968,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>554</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -8019,13 +7980,13 @@
         <v>57061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>549</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -8034,13 +7995,13 @@
         <v>118147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8016,13 @@
         <v>111257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>555</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H24" s="7">
         <v>116</v>
@@ -8070,13 +8031,13 @@
         <v>118506</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
         <v>215</v>
@@ -8085,13 +8046,13 @@
         <v>229764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8067,13 @@
         <v>145736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H25" s="7">
         <v>138</v>
@@ -8121,13 +8082,13 @@
         <v>144296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -8136,13 +8097,13 @@
         <v>290033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8118,13 @@
         <v>429294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H26" s="7">
         <v>408</v>
@@ -8172,13 +8133,13 @@
         <v>444040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>804</v>
@@ -8187,13 +8148,13 @@
         <v>873334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,7 +8210,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8267,7 +8228,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8282,7 +8243,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8297,7 +8258,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8273,13 @@
         <v>19154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -8327,13 +8288,13 @@
         <v>28084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -8342,13 +8303,13 @@
         <v>47238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8324,13 @@
         <v>61102</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -8378,13 +8339,13 @@
         <v>60108</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>118</v>
@@ -8393,13 +8354,13 @@
         <v>121210</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8375,13 @@
         <v>138827</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -8429,13 +8390,13 @@
         <v>142518</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>304</v>
+        <v>599</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M31" s="7">
         <v>271</v>
@@ -8444,13 +8405,13 @@
         <v>281345</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8426,13 @@
         <v>691950</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H32" s="7">
         <v>712</v>
@@ -8480,13 +8441,13 @@
         <v>779916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M32" s="7">
         <v>1401</v>
@@ -8495,13 +8456,13 @@
         <v>1471866</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8590,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8605,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,13 +8581,13 @@
         <v>125649</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>499</v>
+        <v>257</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H35" s="7">
         <v>118</v>
@@ -8635,13 +8596,13 @@
         <v>122477</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>402</v>
+        <v>613</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8650,13 +8611,13 @@
         <v>248126</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8632,13 @@
         <v>284355</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H36" s="7">
         <v>243</v>
@@ -8686,13 +8647,13 @@
         <v>251929</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M36" s="7">
         <v>509</v>
@@ -8701,13 +8662,13 @@
         <v>536284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>630</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8683,13 @@
         <v>599119</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H37" s="7">
         <v>533</v>
@@ -8737,13 +8698,13 @@
         <v>560144</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M37" s="7">
         <v>1095</v>
@@ -8752,13 +8713,13 @@
         <v>1159264</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>636</v>
+        <v>63</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>638</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8734,13 @@
         <v>2313059</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H38" s="7">
         <v>2356</v>
@@ -8788,13 +8749,13 @@
         <v>2516353</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="M38" s="7">
         <v>4578</v>
@@ -8803,13 +8764,13 @@
         <v>4829412</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EC3E1-7B94-4FE9-B673-21BB97A7ED96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54CE595-18A1-402E-9FD9-9D04D1766CBC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8903,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9016,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9031,7 +8992,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9046,7 +9007,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,13 +9022,13 @@
         <v>1224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9082,7 +9043,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -9091,13 +9052,13 @@
         <v>2386</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>655</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,10 +9076,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>658</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -9127,13 +9088,13 @@
         <v>3193</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -9142,13 +9103,13 @@
         <v>12748</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9163,13 +9124,13 @@
         <v>13840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>667</v>
+        <v>532</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -9178,13 +9139,13 @@
         <v>15539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -9193,13 +9154,13 @@
         <v>29379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9214,13 +9175,13 @@
         <v>77363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -9229,13 +9190,13 @@
         <v>109483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="M8" s="7">
         <v>293</v>
@@ -9244,13 +9205,13 @@
         <v>186846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>493</v>
+        <v>671</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,7 +9285,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9333,13 +9294,13 @@
         <v>27005</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9348,13 +9309,13 @@
         <v>27005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>684</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,13 +9330,13 @@
         <v>4674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -9384,13 +9345,13 @@
         <v>707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>679</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -9399,13 +9360,13 @@
         <v>5381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9420,13 +9381,13 @@
         <v>28386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -9435,13 +9396,13 @@
         <v>21144</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>690</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -9450,13 +9411,13 @@
         <v>49530</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>691</v>
+        <v>299</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>692</v>
+        <v>617</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9471,13 +9432,13 @@
         <v>44205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>696</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -9486,13 +9447,13 @@
         <v>37935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>688</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -9501,13 +9462,13 @@
         <v>82140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9522,13 +9483,13 @@
         <v>469814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="H14" s="7">
         <v>890</v>
@@ -9537,13 +9498,13 @@
         <v>530583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -9552,13 +9513,13 @@
         <v>1000398</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9614,7 +9575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9632,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9641,13 +9602,13 @@
         <v>605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9656,13 +9617,13 @@
         <v>605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9677,13 +9638,13 @@
         <v>2363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -9692,13 +9653,13 @@
         <v>14928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9707,13 +9668,13 @@
         <v>17290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9728,13 +9689,13 @@
         <v>52793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>613</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -9743,13 +9704,13 @@
         <v>40971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>142</v>
+        <v>712</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -9758,13 +9719,13 @@
         <v>93764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9779,13 +9740,13 @@
         <v>107146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>723</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>716</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -9794,13 +9755,13 @@
         <v>99277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M19" s="7">
         <v>257</v>
@@ -9809,13 +9770,13 @@
         <v>206423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>727</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>728</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,13 +9791,13 @@
         <v>868154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>731</v>
+        <v>451</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="H20" s="7">
         <v>1279</v>
@@ -9845,13 +9806,13 @@
         <v>896070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="M20" s="7">
         <v>2091</v>
@@ -9860,13 +9821,13 @@
         <v>1764223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9922,7 +9883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9940,7 +9901,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9970,7 +9931,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9985,13 +9946,13 @@
         <v>5078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -10000,13 +9961,13 @@
         <v>13075</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -10015,10 +9976,10 @@
         <v>18153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>249</v>
@@ -10036,13 +9997,13 @@
         <v>54194</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -10051,13 +10012,13 @@
         <v>30879</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>748</v>
+        <v>355</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -10066,13 +10027,13 @@
         <v>85073</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,13 +10048,13 @@
         <v>127195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="H25" s="7">
         <v>148</v>
@@ -10102,13 +10063,13 @@
         <v>110314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -10117,13 +10078,13 @@
         <v>237509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10138,13 +10099,13 @@
         <v>540797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="H26" s="7">
         <v>838</v>
@@ -10153,13 +10114,13 @@
         <v>718808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="M26" s="7">
         <v>1352</v>
@@ -10168,13 +10129,13 @@
         <v>1259605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>765</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10230,7 +10191,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10248,7 +10209,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10263,7 +10224,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10278,7 +10239,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,13 +10254,13 @@
         <v>25088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -10308,13 +10269,13 @@
         <v>13309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -10323,13 +10284,13 @@
         <v>38397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10344,13 +10305,13 @@
         <v>75776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>767</v>
       </c>
       <c r="H30" s="7">
         <v>91</v>
@@ -10359,13 +10320,13 @@
         <v>68592</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="M30" s="7">
         <v>157</v>
@@ -10374,13 +10335,13 @@
         <v>144368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10395,13 +10356,13 @@
         <v>109017</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="H31" s="7">
         <v>162</v>
@@ -10410,13 +10371,13 @@
         <v>114498</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="M31" s="7">
         <v>266</v>
@@ -10425,13 +10386,13 @@
         <v>223515</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,13 +10407,13 @@
         <v>755362</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="H32" s="7">
         <v>1287</v>
@@ -10461,13 +10422,13 @@
         <v>949727</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>794</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="M32" s="7">
         <v>2098</v>
@@ -10476,13 +10437,13 @@
         <v>1705089</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>671</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,7 +10517,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -10565,13 +10526,13 @@
         <v>27609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -10580,10 +10541,10 @@
         <v>27609</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -10601,10 +10562,10 @@
         <v>38427</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>248</v>
@@ -10616,13 +10577,13 @@
         <v>43180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="M35" s="7">
         <v>94</v>
@@ -10631,13 +10592,13 @@
         <v>81607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10652,13 +10613,13 @@
         <v>220704</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>597</v>
+        <v>798</v>
       </c>
       <c r="H36" s="7">
         <v>222</v>
@@ -10667,13 +10628,13 @@
         <v>164779</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>810</v>
+        <v>393</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="M36" s="7">
         <v>412</v>
@@ -10682,13 +10643,13 @@
         <v>385483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>812</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>323</v>
+        <v>801</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>813</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10703,13 +10664,13 @@
         <v>401402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>107</v>
+        <v>804</v>
       </c>
       <c r="H37" s="7">
         <v>568</v>
@@ -10718,13 +10679,13 @@
         <v>377563</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="M37" s="7">
         <v>957</v>
@@ -10733,13 +10694,13 @@
         <v>778966</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>819</v>
+        <v>442</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10754,13 +10715,13 @@
         <v>2711489</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="H38" s="7">
         <v>4496</v>
@@ -10769,13 +10730,13 @@
         <v>3204671</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="M38" s="7">
         <v>7241</v>
@@ -10784,13 +10745,13 @@
         <v>5916161</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>830</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
